--- a/biology/Zoologie/Dircenna_klugii/Dircenna_klugii.xlsx
+++ b/biology/Zoologie/Dircenna_klugii/Dircenna_klugii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dircenna klugii est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Dircenna.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna klugii a été décrit par Carl Geyer  en 1837 sous le nom initial de Ceratinia klugii[1].
-Sous-espèces
-Dircenna klugii klugii; présent dans le sud du Mexique.
-Dircenna  klugii ssp; présent au Costa Rica[1].
-Nom vernaculaire
-Dircenna klugii se nomme Klug’s Clearwing en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna klugii a été décrit par Carl Geyer  en 1837 sous le nom initial de Ceratinia klugii.
 </t>
         </is>
       </c>
@@ -544,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dircenna klugii est un papillon d'une envergure de 73 mm à 83 mm au corps à abdomen mince, aux longues antennes orange, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne très concave[3]. Les ailes sont translucides plus ou moins colorées d'oorange, finement veinées et bordées de marron.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dircenna klugii klugii; présent dans le sud du Mexique.
+Dircenna  klugii ssp; présent au Costa Rica.</t>
         </is>
       </c>
     </row>
@@ -575,14 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dircenna klugii vole toute l'année en Amérique Centrale[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont diverses Solanum[3].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna klugii se nomme Klug’s Clearwing en anglais.
 </t>
         </is>
       </c>
@@ -608,16 +627,191 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna klugii est un papillon d'une envergure de 73 mm à 83 mm au corps à abdomen mince, aux longues antennes orange, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne très concave. Les ailes sont translucides plus ou moins colorées d'oorange, finement veinées et bordées de marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna klugii vole toute l'année en Amérique Centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont diverses Solanum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna klugii est présent dans le sud du Mexique, au Costa Rica et jusqu'à Panama[1],[4]. C'est un rare migrateur dans le sud du Texas[3].
-Biotope
-Dircenna klugii réside principalement en forêt tropicale[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna klugii est présent dans le sud du Mexique, au Costa Rica et jusqu'à Panama,. C'est un rare migrateur dans le sud du Texas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna klugii réside principalement en forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_klugii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Dircenna klugii, sur Wikimedia CommonsDircenna klugii, sur Wikispecies
 </t>
